--- a/Python/textos/numeros.xlsx
+++ b/Python/textos/numeros.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>decrecente</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>aba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabriel </t>
+  </si>
+  <si>
+    <t>gay</t>
   </si>
 </sst>
 </file>
@@ -361,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -377,11 +385,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
